--- a/distances_22jan_0.4_300m.xlsx
+++ b/distances_22jan_0.4_300m.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-35080" yWindow="4360" windowWidth="28160" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="-36040" yWindow="2620" windowWidth="19200" windowHeight="13500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,11 +457,11 @@
         <v>76</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D20" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D24" si="0">C3-B3</f>
         <v>56</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E20" si="1">25*D3</f>
+        <f t="shared" ref="E3:E24" si="1">25*D3</f>
         <v>1400</v>
       </c>
       <c r="F3">
@@ -894,6 +894,106 @@
       </c>
       <c r="G20">
         <v>-8.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>169</v>
+      </c>
+      <c r="B21">
+        <v>340</v>
+      </c>
+      <c r="C21">
+        <v>379</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>975</v>
+      </c>
+      <c r="F21">
+        <v>1084.44</v>
+      </c>
+      <c r="G21">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>173</v>
+      </c>
+      <c r="B22">
+        <v>348</v>
+      </c>
+      <c r="C22">
+        <v>384</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="F22">
+        <v>1191.5</v>
+      </c>
+      <c r="G22">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>176</v>
+      </c>
+      <c r="B23">
+        <v>354</v>
+      </c>
+      <c r="C23">
+        <v>391</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>925</v>
+      </c>
+      <c r="F23">
+        <v>1274.72</v>
+      </c>
+      <c r="G23">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>184</v>
+      </c>
+      <c r="B24">
+        <v>370</v>
+      </c>
+      <c r="C24">
+        <v>406</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="F24">
+        <v>1481.8989999999999</v>
+      </c>
+      <c r="G24">
+        <v>-1.65</v>
       </c>
     </row>
   </sheetData>
